--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lgi2-Adam22.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lgi2-Adam22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.94316345848197</v>
+        <v>7.194537333333333</v>
       </c>
       <c r="H2">
-        <v>6.94316345848197</v>
+        <v>21.583612</v>
       </c>
       <c r="I2">
-        <v>0.9465110918858207</v>
+        <v>0.9450222006930215</v>
       </c>
       <c r="J2">
-        <v>0.9465110918858207</v>
+        <v>0.9617036862109067</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.11238085195494</v>
+        <v>1.124414</v>
       </c>
       <c r="N2">
-        <v>1.11238085195494</v>
+        <v>2.248828</v>
       </c>
       <c r="O2">
-        <v>0.1174145446666237</v>
+        <v>0.1096545122942886</v>
       </c>
       <c r="P2">
-        <v>0.1174145446666237</v>
+        <v>0.08772804550878611</v>
       </c>
       <c r="Q2">
-        <v>7.723442083208582</v>
+        <v>8.089638501122666</v>
       </c>
       <c r="R2">
-        <v>7.723442083208582</v>
+        <v>48.537831006736</v>
       </c>
       <c r="S2">
-        <v>0.1111341688756825</v>
+        <v>0.1036259485242686</v>
       </c>
       <c r="T2">
-        <v>0.1111341688756825</v>
+        <v>0.08436838474987779</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.94316345848197</v>
+        <v>7.194537333333333</v>
       </c>
       <c r="H3">
-        <v>6.94316345848197</v>
+        <v>21.583612</v>
       </c>
       <c r="I3">
-        <v>0.9465110918858207</v>
+        <v>0.9450222006930215</v>
       </c>
       <c r="J3">
-        <v>0.9465110918858207</v>
+        <v>0.9617036862109067</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.726797857638681</v>
+        <v>0.7327576666666668</v>
       </c>
       <c r="N3">
-        <v>0.726797857638681</v>
+        <v>2.198273</v>
       </c>
       <c r="O3">
-        <v>0.07671530786362377</v>
+        <v>0.07145960879910269</v>
       </c>
       <c r="P3">
-        <v>0.07671530786362377</v>
+        <v>0.08575586651568541</v>
       </c>
       <c r="Q3">
-        <v>5.04627632685987</v>
+        <v>5.271852389119556</v>
       </c>
       <c r="R3">
-        <v>5.04627632685987</v>
+        <v>47.44667150207601</v>
       </c>
       <c r="S3">
-        <v>0.07261188981035542</v>
+        <v>0.06753091676799043</v>
       </c>
       <c r="T3">
-        <v>0.07261188981035542</v>
+        <v>0.08247173294234512</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.94316345848197</v>
+        <v>7.194537333333333</v>
       </c>
       <c r="H4">
-        <v>6.94316345848197</v>
+        <v>21.583612</v>
       </c>
       <c r="I4">
-        <v>0.9465110918858207</v>
+        <v>0.9450222006930215</v>
       </c>
       <c r="J4">
-        <v>0.9465110918858207</v>
+        <v>0.9617036862109067</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.553249493266279</v>
+        <v>0.9572023333333334</v>
       </c>
       <c r="N4">
-        <v>0.553249493266279</v>
+        <v>2.871607</v>
       </c>
       <c r="O4">
-        <v>0.05839684962640098</v>
+        <v>0.09334778384885083</v>
       </c>
       <c r="P4">
-        <v>0.05839684962640098</v>
+        <v>0.1120230046848175</v>
       </c>
       <c r="Q4">
-        <v>3.841301665070095</v>
+        <v>6.886627922720445</v>
       </c>
       <c r="R4">
-        <v>3.841301665070095</v>
+        <v>61.97965130448399</v>
       </c>
       <c r="S4">
-        <v>0.05527326590257688</v>
+        <v>0.08821572812265749</v>
       </c>
       <c r="T4">
-        <v>0.05527326590257688</v>
+        <v>0.1077329365458106</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.94316345848197</v>
+        <v>7.194537333333333</v>
       </c>
       <c r="H5">
-        <v>6.94316345848197</v>
+        <v>21.583612</v>
       </c>
       <c r="I5">
-        <v>0.9465110918858207</v>
+        <v>0.9450222006930215</v>
       </c>
       <c r="J5">
-        <v>0.9465110918858207</v>
+        <v>0.9617036862109067</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.958431054229549</v>
+        <v>1.048287</v>
       </c>
       <c r="N5">
-        <v>0.958431054229549</v>
+        <v>3.144861</v>
       </c>
       <c r="O5">
-        <v>0.1011647635150709</v>
+        <v>0.1022304949328654</v>
       </c>
       <c r="P5">
-        <v>0.1011647635150709</v>
+        <v>0.1226827969621539</v>
       </c>
       <c r="Q5">
-        <v>6.654543473200956</v>
+        <v>7.541939957547999</v>
       </c>
       <c r="R5">
-        <v>6.654543473200956</v>
+        <v>67.87745961793199</v>
       </c>
       <c r="S5">
-        <v>0.09575357077502061</v>
+        <v>0.09661008729939326</v>
       </c>
       <c r="T5">
-        <v>0.09575357077502061</v>
+        <v>0.1179844980731676</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.94316345848197</v>
+        <v>7.194537333333333</v>
       </c>
       <c r="H6">
-        <v>6.94316345848197</v>
+        <v>21.583612</v>
       </c>
       <c r="I6">
-        <v>0.9465110918858207</v>
+        <v>0.9450222006930215</v>
       </c>
       <c r="J6">
-        <v>0.9465110918858207</v>
+        <v>0.9617036862109067</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.27013660713892</v>
+        <v>2.387532666666667</v>
       </c>
       <c r="N6">
-        <v>2.27013660713892</v>
+        <v>7.162598</v>
       </c>
       <c r="O6">
-        <v>0.2396185223701131</v>
+        <v>0.2328357083334214</v>
       </c>
       <c r="P6">
-        <v>0.2396185223701131</v>
+        <v>0.2794169777791545</v>
       </c>
       <c r="Q6">
-        <v>15.76192953644919</v>
+        <v>17.17719290488622</v>
       </c>
       <c r="R6">
-        <v>15.76192953644919</v>
+        <v>154.594736143976</v>
       </c>
       <c r="S6">
-        <v>0.2268015892446027</v>
+        <v>0.2200349134891684</v>
       </c>
       <c r="T6">
-        <v>0.2268015892446027</v>
+        <v>0.2687163375201239</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.94316345848197</v>
+        <v>7.194537333333333</v>
       </c>
       <c r="H7">
-        <v>6.94316345848197</v>
+        <v>21.583612</v>
       </c>
       <c r="I7">
-        <v>0.9465110918858207</v>
+        <v>0.9450222006930215</v>
       </c>
       <c r="J7">
-        <v>0.9465110918858207</v>
+        <v>0.9617036862109067</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.85296543343994</v>
+        <v>4.003958</v>
       </c>
       <c r="N7">
-        <v>3.85296543343994</v>
+        <v>8.007916</v>
       </c>
       <c r="O7">
-        <v>0.4066900119581674</v>
+        <v>0.3904718917914712</v>
       </c>
       <c r="P7">
-        <v>0.4066900119581674</v>
+        <v>0.3123933085494028</v>
       </c>
       <c r="Q7">
-        <v>26.75176880425434</v>
+        <v>28.80662531209866</v>
       </c>
       <c r="R7">
-        <v>26.75176880425434</v>
+        <v>172.839751872592</v>
       </c>
       <c r="S7">
-        <v>0.3849366072775825</v>
+        <v>0.3690046064895434</v>
       </c>
       <c r="T7">
-        <v>0.3849366072775825</v>
+        <v>0.3004297963795818</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.392369656770245</v>
+        <v>0.02238633333333333</v>
       </c>
       <c r="H8">
-        <v>0.392369656770245</v>
+        <v>0.067159</v>
       </c>
       <c r="I8">
-        <v>0.05348890811417928</v>
+        <v>0.002940506249664914</v>
       </c>
       <c r="J8">
-        <v>0.05348890811417928</v>
+        <v>0.002992411921704221</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.11238085195494</v>
+        <v>1.124414</v>
       </c>
       <c r="N8">
-        <v>1.11238085195494</v>
+        <v>2.248828</v>
       </c>
       <c r="O8">
-        <v>0.1174145446666237</v>
+        <v>0.1096545122942886</v>
       </c>
       <c r="P8">
-        <v>0.1174145446666237</v>
+        <v>0.08772804550878611</v>
       </c>
       <c r="Q8">
-        <v>0.4364644930793525</v>
+        <v>0.02517150660866667</v>
       </c>
       <c r="R8">
-        <v>0.4364644930793525</v>
+        <v>0.151029039652</v>
       </c>
       <c r="S8">
-        <v>0.006280375790941234</v>
+        <v>0.0003224397787053138</v>
       </c>
       <c r="T8">
-        <v>0.006280375790941234</v>
+        <v>0.000262518449248302</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -974,49 +974,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.392369656770245</v>
+        <v>0.02238633333333333</v>
       </c>
       <c r="H9">
-        <v>0.392369656770245</v>
+        <v>0.067159</v>
       </c>
       <c r="I9">
-        <v>0.05348890811417928</v>
+        <v>0.002940506249664914</v>
       </c>
       <c r="J9">
-        <v>0.05348890811417928</v>
+        <v>0.002992411921704221</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.726797857638681</v>
+        <v>0.7327576666666668</v>
       </c>
       <c r="N9">
-        <v>0.726797857638681</v>
+        <v>2.198273</v>
       </c>
       <c r="O9">
-        <v>0.07671530786362377</v>
+        <v>0.07145960879910269</v>
       </c>
       <c r="P9">
-        <v>0.07671530786362377</v>
+        <v>0.08575586651568541</v>
       </c>
       <c r="Q9">
-        <v>0.2851734259430386</v>
+        <v>0.01640375737855556</v>
       </c>
       <c r="R9">
-        <v>0.2851734259430386</v>
+        <v>0.147633816407</v>
       </c>
       <c r="S9">
-        <v>0.004103418053268347</v>
+        <v>0.0002101274262723713</v>
       </c>
       <c r="T9">
-        <v>0.004103418053268347</v>
+        <v>0.0002566168773176129</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.392369656770245</v>
+        <v>0.02238633333333333</v>
       </c>
       <c r="H10">
-        <v>0.392369656770245</v>
+        <v>0.067159</v>
       </c>
       <c r="I10">
-        <v>0.05348890811417928</v>
+        <v>0.002940506249664914</v>
       </c>
       <c r="J10">
-        <v>0.05348890811417928</v>
+        <v>0.002992411921704221</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.553249493266279</v>
+        <v>0.9572023333333334</v>
       </c>
       <c r="N10">
-        <v>0.553249493266279</v>
+        <v>2.871607</v>
       </c>
       <c r="O10">
-        <v>0.05839684962640098</v>
+        <v>0.09334778384885083</v>
       </c>
       <c r="P10">
-        <v>0.05839684962640098</v>
+        <v>0.1120230046848175</v>
       </c>
       <c r="Q10">
-        <v>0.2170783137812019</v>
+        <v>0.02142825050144444</v>
       </c>
       <c r="R10">
-        <v>0.2170783137812019</v>
+        <v>0.192854254513</v>
       </c>
       <c r="S10">
-        <v>0.003123583723824107</v>
+        <v>0.0002744897417999153</v>
       </c>
       <c r="T10">
-        <v>0.003123583723824107</v>
+        <v>0.0003352189747239757</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.392369656770245</v>
+        <v>0.02238633333333333</v>
       </c>
       <c r="H11">
-        <v>0.392369656770245</v>
+        <v>0.067159</v>
       </c>
       <c r="I11">
-        <v>0.05348890811417928</v>
+        <v>0.002940506249664914</v>
       </c>
       <c r="J11">
-        <v>0.05348890811417928</v>
+        <v>0.002992411921704221</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.958431054229549</v>
+        <v>1.048287</v>
       </c>
       <c r="N11">
-        <v>0.958431054229549</v>
+        <v>3.144861</v>
       </c>
       <c r="O11">
-        <v>0.1011647635150709</v>
+        <v>0.1022304949328654</v>
       </c>
       <c r="P11">
-        <v>0.1011647635150709</v>
+        <v>0.1226827969621539</v>
       </c>
       <c r="Q11">
-        <v>0.3760592637859922</v>
+        <v>0.023467302211</v>
       </c>
       <c r="R11">
-        <v>0.3760592637859922</v>
+        <v>0.211205719899</v>
       </c>
       <c r="S11">
-        <v>0.005411192740050304</v>
+        <v>0.000300609409256428</v>
       </c>
       <c r="T11">
-        <v>0.005411192740050304</v>
+        <v>0.0003671174642175676</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.392369656770245</v>
+        <v>0.02238633333333333</v>
       </c>
       <c r="H12">
-        <v>0.392369656770245</v>
+        <v>0.067159</v>
       </c>
       <c r="I12">
-        <v>0.05348890811417928</v>
+        <v>0.002940506249664914</v>
       </c>
       <c r="J12">
-        <v>0.05348890811417928</v>
+        <v>0.002992411921704221</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.27013660713892</v>
+        <v>2.387532666666667</v>
       </c>
       <c r="N12">
-        <v>2.27013660713892</v>
+        <v>7.162598</v>
       </c>
       <c r="O12">
-        <v>0.2396185223701131</v>
+        <v>0.2328357083334214</v>
       </c>
       <c r="P12">
-        <v>0.2396185223701131</v>
+        <v>0.2794169777791545</v>
       </c>
       <c r="Q12">
-        <v>0.8907327213646665</v>
+        <v>0.05344810212022221</v>
       </c>
       <c r="R12">
-        <v>0.8907327213646665</v>
+        <v>0.481032919082</v>
       </c>
       <c r="S12">
-        <v>0.01281693312551039</v>
+        <v>0.0006846548554995827</v>
       </c>
       <c r="T12">
-        <v>0.01281693312551039</v>
+        <v>0.0008361306954329053</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02238633333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.067159</v>
+      </c>
+      <c r="I13">
+        <v>0.002940506249664914</v>
+      </c>
+      <c r="J13">
+        <v>0.002992411921704221</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.003958</v>
+      </c>
+      <c r="N13">
+        <v>8.007916</v>
+      </c>
+      <c r="O13">
+        <v>0.3904718917914712</v>
+      </c>
+      <c r="P13">
+        <v>0.3123933085494028</v>
+      </c>
+      <c r="Q13">
+        <v>0.08963393844066665</v>
+      </c>
+      <c r="R13">
+        <v>0.5378036306439999</v>
+      </c>
+      <c r="S13">
+        <v>0.001148185038131303</v>
+      </c>
+      <c r="T13">
+        <v>0.000934809460763858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3961645</v>
+      </c>
+      <c r="H14">
+        <v>0.7923290000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.05203729305731365</v>
+      </c>
+      <c r="J14">
+        <v>0.03530390186738909</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.124414</v>
+      </c>
+      <c r="N14">
+        <v>2.248828</v>
+      </c>
+      <c r="O14">
+        <v>0.1096545122942886</v>
+      </c>
+      <c r="P14">
+        <v>0.08772804550878611</v>
+      </c>
+      <c r="Q14">
+        <v>0.445452910103</v>
+      </c>
+      <c r="R14">
+        <v>1.781811640412</v>
+      </c>
+      <c r="S14">
+        <v>0.0057061239913147</v>
+      </c>
+      <c r="T14">
+        <v>0.003097142309660029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3961645</v>
+      </c>
+      <c r="H15">
+        <v>0.7923290000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.05203729305731365</v>
+      </c>
+      <c r="J15">
+        <v>0.03530390186738909</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7327576666666668</v>
+      </c>
+      <c r="N15">
+        <v>2.198273</v>
+      </c>
+      <c r="O15">
+        <v>0.07145960879910269</v>
+      </c>
+      <c r="P15">
+        <v>0.08575586651568541</v>
+      </c>
+      <c r="Q15">
+        <v>0.2902925746361667</v>
+      </c>
+      <c r="R15">
+        <v>1.741755447817</v>
+      </c>
+      <c r="S15">
+        <v>0.003718564604839896</v>
+      </c>
+      <c r="T15">
+        <v>0.003027516696022676</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3961645</v>
+      </c>
+      <c r="H16">
+        <v>0.7923290000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.05203729305731365</v>
+      </c>
+      <c r="J16">
+        <v>0.03530390186738909</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.9572023333333334</v>
+      </c>
+      <c r="N16">
+        <v>2.871607</v>
+      </c>
+      <c r="O16">
+        <v>0.09334778384885083</v>
+      </c>
+      <c r="P16">
+        <v>0.1120230046848175</v>
+      </c>
+      <c r="Q16">
+        <v>0.3792095837838334</v>
+      </c>
+      <c r="R16">
+        <v>2.275257502703</v>
+      </c>
+      <c r="S16">
+        <v>0.00485756598439342</v>
+      </c>
+      <c r="T16">
+        <v>0.003954849164282865</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3961645</v>
+      </c>
+      <c r="H17">
+        <v>0.7923290000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.05203729305731365</v>
+      </c>
+      <c r="J17">
+        <v>0.03530390186738909</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.048287</v>
+      </c>
+      <c r="N17">
+        <v>3.144861</v>
+      </c>
+      <c r="O17">
+        <v>0.1022304949328654</v>
+      </c>
+      <c r="P17">
+        <v>0.1226827969621539</v>
+      </c>
+      <c r="Q17">
+        <v>0.4152940952115</v>
+      </c>
+      <c r="R17">
+        <v>2.491764571269</v>
+      </c>
+      <c r="S17">
+        <v>0.005319798224215736</v>
+      </c>
+      <c r="T17">
+        <v>0.0043311814247687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.392369656770245</v>
-      </c>
-      <c r="H13">
-        <v>0.392369656770245</v>
-      </c>
-      <c r="I13">
-        <v>0.05348890811417928</v>
-      </c>
-      <c r="J13">
-        <v>0.05348890811417928</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.85296543343994</v>
-      </c>
-      <c r="N13">
-        <v>3.85296543343994</v>
-      </c>
-      <c r="O13">
-        <v>0.4066900119581674</v>
-      </c>
-      <c r="P13">
-        <v>0.4066900119581674</v>
-      </c>
-      <c r="Q13">
-        <v>1.511786724666448</v>
-      </c>
-      <c r="R13">
-        <v>1.511786724666448</v>
-      </c>
-      <c r="S13">
-        <v>0.02175340468058489</v>
-      </c>
-      <c r="T13">
-        <v>0.02175340468058489</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3961645</v>
+      </c>
+      <c r="H18">
+        <v>0.7923290000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.05203729305731365</v>
+      </c>
+      <c r="J18">
+        <v>0.03530390186738909</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.387532666666667</v>
+      </c>
+      <c r="N18">
+        <v>7.162598</v>
+      </c>
+      <c r="O18">
+        <v>0.2328357083334214</v>
+      </c>
+      <c r="P18">
+        <v>0.2794169777791545</v>
+      </c>
+      <c r="Q18">
+        <v>0.9458556851236667</v>
+      </c>
+      <c r="R18">
+        <v>5.675134110742</v>
+      </c>
+      <c r="S18">
+        <v>0.01211613998875346</v>
+      </c>
+      <c r="T18">
+        <v>0.009864509563597707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3961645</v>
+      </c>
+      <c r="H19">
+        <v>0.7923290000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.05203729305731365</v>
+      </c>
+      <c r="J19">
+        <v>0.03530390186738909</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.003958</v>
+      </c>
+      <c r="N19">
+        <v>8.007916</v>
+      </c>
+      <c r="O19">
+        <v>0.3904718917914712</v>
+      </c>
+      <c r="P19">
+        <v>0.3123933085494028</v>
+      </c>
+      <c r="Q19">
+        <v>1.586226019091</v>
+      </c>
+      <c r="R19">
+        <v>6.344904076364</v>
+      </c>
+      <c r="S19">
+        <v>0.02031910026379645</v>
+      </c>
+      <c r="T19">
+        <v>0.01102870270905712</v>
       </c>
     </row>
   </sheetData>
